--- a/public/assets/template/tgr-template.xlsx
+++ b/public/assets/template/tgr-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\simaps-ukasya\public\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitrailyasa\Documents\GitHub\simaps-ukasya\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E2FA5-8477-4741-9DA7-08DB0B1C0566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A52A64-7DDA-4033-9A1E-DC7A5C034E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -60,13 +60,13 @@
     <t>Ukasya</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>ASAD</t>
   </si>
   <si>
     <t>Mustavid</t>
+  </si>
+  <si>
+    <t>Putra</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,7 +456,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,10 +491,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
